--- a/COVID19_impact_on_NZ_Tourism/RawData/InternationaArrival2010-Apr2022.xlsx
+++ b/COVID19_impact_on_NZ_Tourism/RawData/InternationaArrival2010-Apr2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Housni\Desktop\Data Science Project\blogpost\blogpost\COVID19_impact_on_NZ_Tourism\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Housni\Desktop\Data Science Project\Blogpost\COVID19_impact_on_NZ_Tourism\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D47B9FB-AEC9-4D05-81E1-3A6DF9DF5F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99DFCE-26D0-40A3-891B-13A319A79A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="11784" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="180">
   <si>
     <t>Visitor arrival totals (Monthly)</t>
   </si>
@@ -570,12 +570,15 @@
   <si>
     <t>Email:info@stats.govt.nz</t>
   </si>
+  <si>
+    <t>2022M05</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +720,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1016,7 +1023,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1060,6 +1067,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1073,20 +1081,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1119,6 +1127,7 @@
     <cellStyle name="Lien hypertexte" xfId="42" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{BA4AD3EE-04C3-4DD1-B5BE-FF731504B6EC}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -1440,14 +1449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:C154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" customWidth="1"/>
@@ -1455,13 +1464,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1470,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1490,7 @@
         <v>208840</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>209110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>208550</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>209020</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>210590</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1545,7 @@
         <v>212800</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>213550</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1567,7 @@
         <v>211730</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>210010</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1580,7 +1589,7 @@
         <v>209560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1591,7 +1600,7 @@
         <v>211100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>212720</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>213090</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>211430</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>209510</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>207830</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>207410</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>207820</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>212600</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>223930</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>235870</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>238730</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1732,7 @@
         <v>231920</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>220060</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1745,7 +1754,7 @@
         <v>211320</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>208300</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>207970</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>210100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>212110</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>213680</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>215570</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1822,7 +1831,7 @@
         <v>216400</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>215480</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>215290</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>215520</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1875,7 @@
         <v>216490</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
@@ -1877,7 +1886,7 @@
         <v>217230</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>219850</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>223770</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>226750</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>226880</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>227370</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>229890</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>231900</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1965,7 +1974,7 @@
         <v>230980</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>229390</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>49</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>230040</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>233350</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>235680</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>234640</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +2040,7 @@
         <v>232530</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>231970</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>55</v>
       </c>
@@ -2053,7 +2062,7 @@
         <v>234460</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -2064,7 +2073,7 @@
         <v>237810</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>238780</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -2086,7 +2095,7 @@
         <v>238540</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>59</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>239430</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>60</v>
       </c>
@@ -2108,7 +2117,7 @@
         <v>242480</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>61</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>244710</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>62</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>247570</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -2141,7 +2150,7 @@
         <v>251390</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>64</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>254870</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>65</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>256070</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>66</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>256740</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>67</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>257500</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>68</v>
       </c>
@@ -2196,7 +2205,7 @@
         <v>258750</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>69</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>259330</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>261080</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>264060</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>72</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>266990</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>73</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>269450</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>74</v>
       </c>
@@ -2262,7 +2271,7 @@
         <v>273040</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>75</v>
       </c>
@@ -2273,7 +2282,7 @@
         <v>277100</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>280160</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>77</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>282960</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v>284590</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
@@ -2317,7 +2326,7 @@
         <v>287260</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>80</v>
       </c>
@@ -2328,7 +2337,7 @@
         <v>290300</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>81</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>293460</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>82</v>
       </c>
@@ -2350,7 +2359,7 @@
         <v>296290</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>83</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>298140</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>84</v>
       </c>
@@ -2372,7 +2381,7 @@
         <v>297960</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>298320</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>298630</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>87</v>
       </c>
@@ -2405,7 +2414,7 @@
         <v>299980</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>88</v>
       </c>
@@ -2416,7 +2425,7 @@
         <v>303720</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>89</v>
       </c>
@@ -2427,7 +2436,7 @@
         <v>307440</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>90</v>
       </c>
@@ -2438,7 +2447,7 @@
         <v>315980</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>91</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>325260</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>92</v>
       </c>
@@ -2460,7 +2469,7 @@
         <v>326770</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>93</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>320720</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>94</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>312490</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>95</v>
       </c>
@@ -2493,7 +2502,7 @@
         <v>308690</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -2504,7 +2513,7 @@
         <v>310370</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>308740</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>308840</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>99</v>
       </c>
@@ -2537,7 +2546,7 @@
         <v>312880</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>100</v>
       </c>
@@ -2548,7 +2557,7 @@
         <v>318210</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>101</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>323760</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>102</v>
       </c>
@@ -2570,7 +2579,7 @@
         <v>327260</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>103</v>
       </c>
@@ -2581,7 +2590,7 @@
         <v>328220</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>104</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>327540</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>105</v>
       </c>
@@ -2603,7 +2612,7 @@
         <v>323930</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>106</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>321150</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>107</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>322230</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>108</v>
       </c>
@@ -2636,7 +2645,7 @@
         <v>322740</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>109</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>321970</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>110</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>318440</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>111</v>
       </c>
@@ -2669,7 +2678,7 @@
         <v>319780</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>112</v>
       </c>
@@ -2680,7 +2689,7 @@
         <v>327150</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>334150</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>114</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>335250</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>115</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>332970</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>116</v>
       </c>
@@ -2724,7 +2733,7 @@
         <v>331100</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>117</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>331280</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>118</v>
       </c>
@@ -2746,7 +2755,7 @@
         <v>328410</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>119</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>324020</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>318510</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>121</v>
       </c>
@@ -2779,7 +2788,7 @@
         <v>316560</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>122</v>
       </c>
@@ -2790,7 +2799,7 @@
         <v>320400</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>123</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>308610</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>124</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>261220</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>125</v>
       </c>
@@ -2823,7 +2832,7 @@
         <v>183630</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>126</v>
       </c>
@@ -2834,7 +2843,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
@@ -2856,7 +2865,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
@@ -2900,7 +2909,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
@@ -2911,7 +2920,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>136</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>137</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>139</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>141</v>
       </c>
@@ -2988,7 +2997,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
@@ -2999,7 +3008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>143</v>
       </c>
@@ -3010,7 +3019,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>144</v>
       </c>
@@ -3021,7 +3030,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>145</v>
       </c>
@@ -3032,7 +3041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>146</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -3065,7 +3074,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -3076,7 +3085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
@@ -3098,276 +3107,284 @@
         <v>127</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B151" s="4">
+        <v>72755</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-    </row>
-    <row r="152" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="7" t="s">
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-    </row>
-    <row r="153" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="154" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-    </row>
-    <row r="155" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+    </row>
+    <row r="156" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-    </row>
-    <row r="156" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="7" t="s">
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-    </row>
-    <row r="157" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-    </row>
-    <row r="158" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="7" t="s">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-    </row>
-    <row r="159" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="160" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="7" t="s">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7" t="s">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-    </row>
-    <row r="162" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7" t="s">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-    </row>
-    <row r="163" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-    </row>
-    <row r="164" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="7" t="s">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-    </row>
-    <row r="165" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7" t="s">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+    </row>
+    <row r="166" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="166" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+    </row>
+    <row r="167" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-    </row>
-    <row r="167" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-    </row>
-    <row r="168" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-    </row>
-    <row r="169" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7" t="s">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+    </row>
+    <row r="170" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-    </row>
-    <row r="170" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="7" t="s">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+    </row>
+    <row r="171" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-    </row>
-    <row r="171" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-    </row>
-    <row r="172" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="7" t="s">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="5"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-    </row>
-    <row r="173" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-    </row>
-    <row r="174" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="7" t="s">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="5"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-    </row>
-    <row r="175" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="7" t="s">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+    </row>
+    <row r="176" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-    </row>
-    <row r="176" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-    </row>
-    <row r="177" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="7" t="s">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+    </row>
+    <row r="178" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-    </row>
-    <row r="178" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="7" t="s">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B178" s="7"/>
-      <c r="C178" s="7"/>
-    </row>
-    <row r="179" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-    </row>
-    <row r="180" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="7" t="s">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="5"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+    </row>
+    <row r="181" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
-    </row>
-    <row r="181" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="7" t="s">
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-    </row>
-    <row r="182" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="7" t="s">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-    </row>
-    <row r="183" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="8" t="s">
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-    </row>
-    <row r="184" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-    </row>
-    <row r="185" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
     <mergeCell ref="A180:C180"/>
     <mergeCell ref="A181:C181"/>
     <mergeCell ref="A182:C182"/>
     <mergeCell ref="A183:C183"/>
     <mergeCell ref="A184:C184"/>
     <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A183" r:id="rId1" display="mailto:info@stats.govt.nz"/>
+    <hyperlink ref="A184" r:id="rId1" display="mailto:info@stats.govt.nz" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
